--- a/Dashboards-test/TS12.xlsx
+++ b/Dashboards-test/TS12.xlsx
@@ -26,7 +26,7 @@
     <x:definedName name="DatesKDR">'KDR Per Day'!$D$1:$Q$1</x:definedName>
     <x:definedName name="DatesXP">'XP Per Day'!$E$1:$R$1</x:definedName>
     <x:definedName name="PlayersKDR">'KDR Per Day'!$A$2:$Q$20</x:definedName>
-    <x:definedName name="PlayersXP">'XP Per Day'!$A$2:$P$20</x:definedName>
+    <x:definedName name="PlayersXP">'XP Per Day'!$A$2:$R$20</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="191029"/>
   <x:extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <x:si>
     <x:t>Player</x:t>
   </x:si>
@@ -58,15 +58,15 @@
     <x:t>Total XP</x:t>
   </x:si>
   <x:si>
+    <x:t>K I L L E R</x:t>
+  </x:si>
+  <x:si>
     <x:t>Fighter X</x:t>
   </x:si>
   <x:si>
     <x:t>Valarie vn 314</x:t>
   </x:si>
   <x:si>
-    <x:t>K I L L E R</x:t>
-  </x:si>
-  <x:si>
     <x:t>nani67</x:t>
   </x:si>
   <x:si>
@@ -115,15 +115,48 @@
     <x:t>Average KDR</x:t>
   </x:si>
   <x:si>
+    <x:t>2,2 (619/287)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- (/)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,0 (0/0)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,2 (33/15)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,7 (20/12)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,5 (67/44)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,8 (42/11)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,4 (185/77)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,5 (12/8)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,5 (85/57)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,3 (59/18)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,4 (61/25)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,8 (55/20)</x:t>
+  </x:si>
+  <x:si>
     <x:t>2,1 (62/29)</x:t>
   </x:si>
   <x:si>
-    <x:t>- (/)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,0 (0/0)</x:t>
-  </x:si>
-  <x:si>
     <x:t>0,8 (14/17)</x:t>
   </x:si>
   <x:si>
@@ -151,33 +184,6 @@
     <x:t>2,2 (11/5)</x:t>
   </x:si>
   <x:si>
-    <x:t>2,1 (503/242)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,2 (33/15)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,7 (20/12)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,5 (67/44)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,8 (42/11)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,4 (185/77)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,5 (12/8)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,5 (85/57)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,3 (59/18)</x:t>
-  </x:si>
-  <x:si>
     <x:t>1,8 (363/197)</x:t>
   </x:si>
   <x:si>
@@ -226,12 +232,12 @@
     <x:t>1,6 (26/16)</x:t>
   </x:si>
   <x:si>
+    <x:t>1,1 (1276/1196)</x:t>
+  </x:si>
+  <x:si>
     <x:t>1,0 (2/2)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,0 (897/903)</x:t>
-  </x:si>
-  <x:si>
     <x:t>0,5 (32/66)</x:t>
   </x:si>
   <x:si>
@@ -256,7 +262,13 @@
     <x:t>1,0 (76/73)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,0 (300/310)</x:t>
+    <x:t>1,0 (183/183)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,8 (196/110)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,0 (569/575)</x:t>
   </x:si>
   <x:si>
     <x:t>0,9 (33/36)</x:t>
@@ -266,6 +278,12 @@
   </x:si>
   <x:si>
     <x:t>1,0 (260/265)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,0 (250/251)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,4 (19/14)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -745,44 +763,50 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C2" s="15" t="n">
-        <x:v>3490.67214204545</x:v>
+        <x:v>3587.81695192308</x:v>
       </x:c>
       <x:c r="D2" s="15" t="n">
-        <x:v>236510.6951875</x:v>
+        <x:v>200138.106145833</x:v>
       </x:c>
       <x:c r="E2" s="16" t="s"/>
       <x:c r="F2" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G2" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>56.1638333333249</x:v>
       </x:c>
       <x:c r="H2" s="16" t="n">
-        <x:v>1250.6525</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2" s="16" t="n">
-        <x:v>723.025583333336</x:v>
+        <x:v>818.231833333295</x:v>
       </x:c>
       <x:c r="J2" s="16" t="n">
-        <x:v>4388.66681249999</x:v>
+        <x:v>14318.5822083334</x:v>
       </x:c>
       <x:c r="K2" s="16" t="n">
-        <x:v>4848.70966666666</x:v>
+        <x:v>3747.34095833328</x:v>
       </x:c>
       <x:c r="L2" s="16" t="n">
-        <x:v>12721.0484583333</x:v>
+        <x:v>1732.40472916668</x:v>
       </x:c>
       <x:c r="M2" s="16" t="n">
-        <x:v>304.74920833332</x:v>
+        <x:v>3316.32477083337</x:v>
       </x:c>
       <x:c r="N2" s="16" t="n">
-        <x:v>5315.38833333334</x:v>
+        <x:v>1496.58504166664</x:v>
       </x:c>
       <x:c r="O2" s="16" t="n">
-        <x:v>8845.15299999999</x:v>
+        <x:v>6421.47349999999</x:v>
       </x:c>
       <x:c r="P2" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>2116.36545833334</x:v>
+      </x:c>
+      <x:c r="Q2" s="16" t="n">
+        <x:v>6012.37866666674</x:v>
+      </x:c>
+      <x:c r="R2" s="16" t="n">
+        <x:v>6605.769375</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:146" x14ac:dyDescent="0.25">
@@ -790,30 +814,50 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C3" s="15" t="n">
-        <x:v>3159.41448958334</x:v>
+        <x:v>3483.57446314102</x:v>
       </x:c>
       <x:c r="D3" s="15" t="n">
-        <x:v>285823.040875</x:v>
+        <x:v>243399.769645833</x:v>
       </x:c>
       <x:c r="E3" s="16" t="s"/>
-      <x:c r="F3" s="16" t="s"/>
-      <x:c r="G3" s="16" t="s"/>
-      <x:c r="H3" s="16" t="s"/>
-      <x:c r="I3" s="16" t="s"/>
-      <x:c r="J3" s="16" t="s"/>
-      <x:c r="K3" s="16" t="s"/>
-      <x:c r="L3" s="16" t="s"/>
+      <x:c r="F3" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G3" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H3" s="16" t="n">
+        <x:v>1250.6525</x:v>
+      </x:c>
+      <x:c r="I3" s="16" t="n">
+        <x:v>723.025583333336</x:v>
+      </x:c>
+      <x:c r="J3" s="16" t="n">
+        <x:v>4388.66681249999</x:v>
+      </x:c>
+      <x:c r="K3" s="16" t="n">
+        <x:v>4848.70966666666</x:v>
+      </x:c>
+      <x:c r="L3" s="16" t="n">
+        <x:v>12721.0484583333</x:v>
+      </x:c>
       <x:c r="M3" s="16" t="n">
-        <x:v>745.157374999893</x:v>
+        <x:v>304.74920833332</x:v>
       </x:c>
       <x:c r="N3" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>5315.38833333334</x:v>
       </x:c>
       <x:c r="O3" s="16" t="n">
-        <x:v>293.859875000082</x:v>
+        <x:v>8845.15299999999</x:v>
       </x:c>
       <x:c r="P3" s="16" t="n">
-        <x:v>11598.6407083334</x:v>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q3" s="16" t="n">
+        <x:v>4864.35058333332</x:v>
+      </x:c>
+      <x:c r="R3" s="16" t="n">
+        <x:v>2024.72387499997</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:146">
@@ -821,44 +865,36 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C4" s="15" t="n">
-        <x:v>3093.04293939394</x:v>
+        <x:v>3337.84919097219</x:v>
       </x:c>
       <x:c r="D4" s="15" t="n">
-        <x:v>187519.958104166</x:v>
+        <x:v>293212.4780625</x:v>
       </x:c>
       <x:c r="E4" s="16" t="s"/>
-      <x:c r="F4" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G4" s="16" t="n">
-        <x:v>56.1638333333249</x:v>
-      </x:c>
-      <x:c r="H4" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I4" s="16" t="n">
-        <x:v>818.231833333295</x:v>
-      </x:c>
-      <x:c r="J4" s="16" t="n">
-        <x:v>14318.5822083334</x:v>
-      </x:c>
-      <x:c r="K4" s="16" t="n">
-        <x:v>3747.34095833328</x:v>
-      </x:c>
-      <x:c r="L4" s="16" t="n">
-        <x:v>1732.40472916668</x:v>
-      </x:c>
+      <x:c r="F4" s="16" t="s"/>
+      <x:c r="G4" s="16" t="s"/>
+      <x:c r="H4" s="16" t="s"/>
+      <x:c r="I4" s="16" t="s"/>
+      <x:c r="J4" s="16" t="s"/>
+      <x:c r="K4" s="16" t="s"/>
+      <x:c r="L4" s="16" t="s"/>
       <x:c r="M4" s="16" t="n">
-        <x:v>3316.32477083337</x:v>
+        <x:v>745.157374999893</x:v>
       </x:c>
       <x:c r="N4" s="16" t="n">
-        <x:v>1496.58504166664</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O4" s="16" t="n">
-        <x:v>6421.47349999999</x:v>
+        <x:v>293.859875000082</x:v>
       </x:c>
       <x:c r="P4" s="16" t="n">
-        <x:v>2116.36545833334</x:v>
+        <x:v>11598.6407083334</x:v>
+      </x:c>
+      <x:c r="Q4" s="16" t="n">
+        <x:v>7066.87164583313</x:v>
+      </x:c>
+      <x:c r="R4" s="16" t="n">
+        <x:v>322.565541666641</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:146">
@@ -866,7 +902,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C5" s="15" t="n">
-        <x:v>1241.18282575757</x:v>
+        <x:v>1050.23162179486</x:v>
       </x:c>
       <x:c r="D5" s="15" t="n">
         <x:v>333494.791645833</x:v>
@@ -904,6 +940,12 @@
       </x:c>
       <x:c r="P5" s="16" t="n">
         <x:v>2239.23741666676</x:v>
+      </x:c>
+      <x:c r="Q5" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R5" s="16" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:146">
@@ -911,7 +953,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C6" s="15" t="n">
-        <x:v>146.966590909086</x:v>
+        <x:v>124.356346153842</x:v>
       </x:c>
       <x:c r="D6" s="15" t="n">
         <x:v>437229.723999999</x:v>
@@ -948,6 +990,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P6" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q6" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R6" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -956,7 +1004,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C7" s="15" t="n">
-        <x:v>140.601742424245</x:v>
+        <x:v>118.970705128208</x:v>
       </x:c>
       <x:c r="D7" s="15" t="n">
         <x:v>364651.30375</x:v>
@@ -993,6 +1041,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P7" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q7" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R7" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -1001,7 +1055,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="15" t="n">
-        <x:v>88.1492575757597</x:v>
+        <x:v>74.5878333333352</x:v>
       </x:c>
       <x:c r="D8" s="15" t="n">
         <x:v>172364.824916667</x:v>
@@ -1038,6 +1092,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P8" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q8" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R8" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -1046,7 +1106,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="15" t="n">
-        <x:v>77.9353484848491</x:v>
+        <x:v>65.9452948717954</x:v>
       </x:c>
       <x:c r="D9" s="15" t="n">
         <x:v>58783.6407916666</x:v>
@@ -1084,6 +1144,12 @@
       </x:c>
       <x:c r="P9" s="16" t="n">
         <x:v>393.414666666671</x:v>
+      </x:c>
+      <x:c r="Q9" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R9" s="16" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:146">
@@ -1091,7 +1157,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C10" s="15" t="n">
-        <x:v>19.3654318181825</x:v>
+        <x:v>16.3861346153852</x:v>
       </x:c>
       <x:c r="D10" s="15" t="n">
         <x:v>209931.021083333</x:v>
@@ -1128,6 +1194,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P10" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q10" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R10" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -1136,7 +1208,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C11" s="15" t="n">
-        <x:v>4.1754696969689</x:v>
+        <x:v>3.53308974358907</x:v>
       </x:c>
       <x:c r="D11" s="15" t="n">
         <x:v>156383.450375</x:v>
@@ -1173,6 +1245,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P11" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q11" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R11" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -1220,6 +1298,12 @@
       <x:c r="P12" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q12" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R12" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="13" spans="1:146" x14ac:dyDescent="0.25">
       <x:c r="B13" s="14" t="s">
@@ -1265,7 +1349,13 @@
       <x:c r="P13" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="AC13" s="17" t="s"/>
+      <x:c r="Q13" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R13" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AE13" s="17" t="s"/>
     </x:row>
     <x:row r="14" spans="1:146" x14ac:dyDescent="0.25">
       <x:c r="B14" s="14" t="s">
@@ -1311,10 +1401,16 @@
       <x:c r="P14" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="Z14" s="16" t="s"/>
-      <x:c r="AA14" s="16" t="s"/>
+      <x:c r="Q14" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R14" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="AB14" s="16" t="s"/>
       <x:c r="AC14" s="16" t="s"/>
+      <x:c r="AD14" s="16" t="s"/>
+      <x:c r="AE14" s="16" t="s"/>
     </x:row>
     <x:row r="15" spans="1:146">
       <x:c r="B15" s="14" t="s">
@@ -1338,6 +1434,8 @@
       <x:c r="N15" s="16" t="s"/>
       <x:c r="O15" s="16" t="s"/>
       <x:c r="P15" s="16" t="s"/>
+      <x:c r="Q15" s="16" t="s"/>
+      <x:c r="R15" s="16" t="s"/>
     </x:row>
     <x:row r="16" spans="1:146">
       <x:c r="B16" s="14" t="s">
@@ -1361,6 +1459,8 @@
       <x:c r="N16" s="16" t="s"/>
       <x:c r="O16" s="16" t="s"/>
       <x:c r="P16" s="16" t="s"/>
+      <x:c r="Q16" s="16" t="s"/>
+      <x:c r="R16" s="16" t="s"/>
     </x:row>
     <x:row r="17" spans="1:146">
       <x:c r="B17" s="14" t="s">
@@ -1384,6 +1484,8 @@
       <x:c r="N17" s="16" t="s"/>
       <x:c r="O17" s="16" t="s"/>
       <x:c r="P17" s="16" t="s"/>
+      <x:c r="Q17" s="16" t="s"/>
+      <x:c r="R17" s="16" t="s"/>
     </x:row>
     <x:row r="18" spans="1:146">
       <x:c r="B18" s="14" t="s">
@@ -1407,6 +1509,8 @@
       <x:c r="N18" s="16" t="s"/>
       <x:c r="O18" s="16" t="s"/>
       <x:c r="P18" s="16" t="s"/>
+      <x:c r="Q18" s="16" t="s"/>
+      <x:c r="R18" s="16" t="s"/>
     </x:row>
     <x:row r="19" spans="1:146">
       <x:c r="B19" s="14" t="s">
@@ -1430,6 +1534,8 @@
       <x:c r="N19" s="16" t="s"/>
       <x:c r="O19" s="16" t="s"/>
       <x:c r="P19" s="16" t="s"/>
+      <x:c r="Q19" s="16" t="s"/>
+      <x:c r="R19" s="16" t="s"/>
     </x:row>
   </x:sheetData>
   <x:dataConsolidate/>
@@ -1456,13 +1562,12 @@
   <x:cols>
     <x:col min="1" max="1" width="9.285156" style="0" hidden="1" customWidth="1"/>
     <x:col min="2" max="2" width="23.270625" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="17.130625" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="20.410625" style="0" bestFit="1" customWidth="1"/>
     <x:col min="4" max="8" width="13.270625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="15.980625" style="0" customWidth="1"/>
     <x:col min="10" max="12" width="14.700625" style="0" customWidth="1"/>
     <x:col min="13" max="13" width="13.270625" style="0" customWidth="1"/>
-    <x:col min="14" max="15" width="15.980625" style="0" customWidth="1"/>
-    <x:col min="16" max="17" width="13.270625" style="0" customWidth="1"/>
+    <x:col min="14" max="17" width="15.980625" style="0" customWidth="1"/>
     <x:col min="18" max="23" width="8" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
@@ -1518,7 +1623,7 @@
     </x:row>
     <x:row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <x:c r="B2" s="14" t="s">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C2" s="18" t="s">
         <x:v>22</x:v>
@@ -1545,33 +1650,33 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="K2" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="L2" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M2" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N2" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="O2" s="19" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="P2" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="Q2" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <x:c r="B3" s="14" t="s">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C3" s="18" t="s">
-        <x:v>29</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D3" s="19" t="s">
         <x:v>23</x:v>
@@ -1580,19 +1685,19 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F3" s="19" t="s">
-        <x:v>30</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G3" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H3" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I3" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="J3" s="19" t="s">
-        <x:v>32</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="K3" s="19" t="s">
         <x:v>24</x:v>
@@ -1607,21 +1712,21 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="O3" s="19" t="s">
-        <x:v>33</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="P3" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="Q3" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:36">
       <x:c r="B4" s="14" t="s">
-        <x:v>3</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C4" s="18" t="s">
-        <x:v>34</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D4" s="19" t="s">
         <x:v>23</x:v>
@@ -1630,40 +1735,40 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F4" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G4" s="19" t="s">
-        <x:v>35</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H4" s="19" t="s">
-        <x:v>36</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I4" s="19" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="J4" s="19" t="s">
-        <x:v>38</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="K4" s="19" t="s">
-        <x:v>39</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="L4" s="19" t="s">
-        <x:v>40</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="M4" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="N4" s="19" t="s">
-        <x:v>42</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="O4" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="P4" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="Q4" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:36">
@@ -1671,7 +1776,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C5" s="18" t="s">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D5" s="19" t="s">
         <x:v>23</x:v>
@@ -1680,40 +1785,40 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F5" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G5" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H5" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I5" s="19" t="s">
-        <x:v>47</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="J5" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="K5" s="19" t="s">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="L5" s="19" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="M5" s="19" t="s">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N5" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="O5" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="P5" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="Q5" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:36">
@@ -1721,7 +1826,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C6" s="18" t="s">
-        <x:v>54</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D6" s="19" t="s">
         <x:v>23</x:v>
@@ -1745,7 +1850,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="K6" s="19" t="s">
-        <x:v>54</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="L6" s="19" t="s">
         <x:v>24</x:v>
@@ -1760,10 +1865,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P6" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="Q6" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:36">
@@ -1771,7 +1876,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C7" s="18" t="s">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D7" s="19" t="s">
         <x:v>23</x:v>
@@ -1801,7 +1906,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="M7" s="19" t="s">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N7" s="19" t="s">
         <x:v>24</x:v>
@@ -1810,10 +1915,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P7" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="Q7" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:36">
@@ -1821,7 +1926,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="18" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D8" s="19" t="s">
         <x:v>23</x:v>
@@ -1848,10 +1953,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="L8" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="M8" s="19" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="N8" s="19" t="s">
         <x:v>24</x:v>
@@ -1860,18 +1965,18 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P8" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="Q8" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:36">
       <x:c r="B9" s="14" t="s">
-        <x:v>12</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="18" t="s">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D9" s="19" t="s">
         <x:v>23</x:v>
@@ -1880,48 +1985,48 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F9" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G9" s="19" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="H9" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I9" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="J9" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="K9" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="L9" s="19" t="s">
-        <x:v>59</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="M9" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="N9" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="O9" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="P9" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="Q9" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:36">
       <x:c r="B10" s="14" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="18" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D10" s="19" t="s">
         <x:v>23</x:v>
@@ -1930,48 +2035,48 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F10" s="19" t="s">
-        <x:v>59</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G10" s="19" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="H10" s="19" t="s">
-        <x:v>61</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I10" s="19" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J10" s="19" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="K10" s="19" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="L10" s="19" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="J10" s="19" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="K10" s="19" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="L10" s="19" t="s">
-        <x:v>65</x:v>
-      </x:c>
       <x:c r="M10" s="19" t="s">
-        <x:v>66</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="N10" s="19" t="s">
-        <x:v>67</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="O10" s="19" t="s">
-        <x:v>68</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="P10" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="Q10" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:36">
       <x:c r="B11" s="14" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="18" t="s">
-        <x:v>69</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D11" s="19" t="s">
         <x:v>23</x:v>
@@ -1998,22 +2103,22 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L11" s="19" t="s">
-        <x:v>70</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="M11" s="19" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="N11" s="19" t="s">
-        <x:v>71</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="O11" s="19" t="s">
-        <x:v>72</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="P11" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="Q11" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:36">
@@ -2060,10 +2165,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P12" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="Q12" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:36">
@@ -2110,10 +2215,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P13" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="Q13" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:36">
@@ -2160,10 +2265,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P14" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="Q14" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:36">
